--- a/Perhitungan Manual.xlsx
+++ b/Perhitungan Manual.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="4665" tabRatio="829" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7770" tabRatio="829" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Data split dan Normalisasi data" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="226">
   <si>
     <t>num_cell(output)</t>
   </si>
@@ -724,6 +724,9 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=m2cg32uEeZw&amp;list=WL&amp;index=27&amp;t=0s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gradient descent </t>
   </si>
 </sst>
 </file>
@@ -2078,20 +2081,23 @@
     <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2111,8 +2117,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2123,30 +2150,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="46">
     <cellStyle name="20% - Accent1 2" xfId="22"/>
@@ -16496,6 +16499,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>89648</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>192962</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>22413</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6140824" y="5479677"/>
+          <a:ext cx="7364726" cy="5591736"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -18705,7 +18746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB48"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
@@ -19855,16 +19896,16 @@
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
       <c r="G36" s="30"/>
-      <c r="H36" s="148" t="s">
+      <c r="H36" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="I36" s="148"/>
-      <c r="J36" s="148"/>
-      <c r="K36" s="148"/>
-      <c r="L36" s="148"/>
-      <c r="M36" s="148"/>
-      <c r="N36" s="148"/>
-      <c r="O36" s="148"/>
+      <c r="I36" s="157"/>
+      <c r="J36" s="157"/>
+      <c r="K36" s="157"/>
+      <c r="L36" s="157"/>
+      <c r="M36" s="157"/>
+      <c r="N36" s="157"/>
+      <c r="O36" s="157"/>
       <c r="P36" s="30"/>
       <c r="Q36" s="30"/>
       <c r="R36" s="30"/>
@@ -22540,14 +22581,14 @@
     <row r="42" spans="1:51">
       <c r="A42" s="37"/>
       <c r="B42" s="38"/>
-      <c r="C42" s="149" t="s">
+      <c r="C42" s="164" t="s">
         <v>39</v>
       </c>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
+      <c r="D42" s="164"/>
+      <c r="E42" s="164"/>
+      <c r="F42" s="164"/>
+      <c r="G42" s="164"/>
+      <c r="H42" s="164"/>
       <c r="I42" s="38"/>
       <c r="J42" s="38"/>
       <c r="K42" s="38"/>
@@ -22555,42 +22596,42 @@
       <c r="M42" s="30"/>
       <c r="N42" s="37"/>
       <c r="O42" s="38"/>
-      <c r="P42" s="149" t="s">
+      <c r="P42" s="164" t="s">
         <v>39</v>
       </c>
-      <c r="Q42" s="149"/>
-      <c r="R42" s="149"/>
-      <c r="S42" s="149"/>
-      <c r="T42" s="149"/>
-      <c r="U42" s="149"/>
+      <c r="Q42" s="164"/>
+      <c r="R42" s="164"/>
+      <c r="S42" s="164"/>
+      <c r="T42" s="164"/>
+      <c r="U42" s="164"/>
       <c r="V42" s="38"/>
       <c r="W42" s="38"/>
       <c r="X42" s="38"/>
       <c r="Y42" s="39"/>
       <c r="AA42" s="37"/>
       <c r="AB42" s="38"/>
-      <c r="AC42" s="149" t="s">
+      <c r="AC42" s="164" t="s">
         <v>39</v>
       </c>
-      <c r="AD42" s="149"/>
-      <c r="AE42" s="149"/>
-      <c r="AF42" s="149"/>
-      <c r="AG42" s="149"/>
-      <c r="AH42" s="149"/>
+      <c r="AD42" s="164"/>
+      <c r="AE42" s="164"/>
+      <c r="AF42" s="164"/>
+      <c r="AG42" s="164"/>
+      <c r="AH42" s="164"/>
       <c r="AI42" s="38"/>
       <c r="AJ42" s="38"/>
       <c r="AK42" s="38"/>
       <c r="AL42" s="39"/>
       <c r="AN42" s="37"/>
       <c r="AO42" s="38"/>
-      <c r="AP42" s="149" t="s">
+      <c r="AP42" s="164" t="s">
         <v>39</v>
       </c>
-      <c r="AQ42" s="149"/>
-      <c r="AR42" s="149"/>
-      <c r="AS42" s="149"/>
-      <c r="AT42" s="149"/>
-      <c r="AU42" s="149"/>
+      <c r="AQ42" s="164"/>
+      <c r="AR42" s="164"/>
+      <c r="AS42" s="164"/>
+      <c r="AT42" s="164"/>
+      <c r="AU42" s="164"/>
       <c r="AV42" s="38"/>
       <c r="AW42" s="38"/>
       <c r="AX42" s="38"/>
@@ -23221,144 +23262,144 @@
     <row r="55" spans="1:51">
       <c r="A55" s="37"/>
       <c r="B55" s="38"/>
-      <c r="C55" s="150" t="s">
+      <c r="C55" s="165" t="s">
         <v>40</v>
       </c>
-      <c r="D55" s="151"/>
-      <c r="E55" s="151"/>
-      <c r="F55" s="151"/>
-      <c r="G55" s="152"/>
-      <c r="H55" s="150" t="s">
+      <c r="D55" s="166"/>
+      <c r="E55" s="166"/>
+      <c r="F55" s="166"/>
+      <c r="G55" s="167"/>
+      <c r="H55" s="165" t="s">
         <v>41</v>
       </c>
-      <c r="I55" s="151"/>
-      <c r="J55" s="151"/>
-      <c r="K55" s="151"/>
-      <c r="L55" s="152"/>
+      <c r="I55" s="166"/>
+      <c r="J55" s="166"/>
+      <c r="K55" s="166"/>
+      <c r="L55" s="167"/>
       <c r="M55" s="30"/>
       <c r="N55" s="37"/>
       <c r="O55" s="38"/>
-      <c r="P55" s="150" t="s">
+      <c r="P55" s="165" t="s">
         <v>40</v>
       </c>
-      <c r="Q55" s="151"/>
-      <c r="R55" s="151"/>
-      <c r="S55" s="151"/>
-      <c r="T55" s="152"/>
-      <c r="U55" s="150" t="s">
+      <c r="Q55" s="166"/>
+      <c r="R55" s="166"/>
+      <c r="S55" s="166"/>
+      <c r="T55" s="167"/>
+      <c r="U55" s="165" t="s">
         <v>41</v>
       </c>
-      <c r="V55" s="151"/>
-      <c r="W55" s="151"/>
-      <c r="X55" s="151"/>
-      <c r="Y55" s="152"/>
+      <c r="V55" s="166"/>
+      <c r="W55" s="166"/>
+      <c r="X55" s="166"/>
+      <c r="Y55" s="167"/>
       <c r="AA55" s="37"/>
       <c r="AB55" s="38"/>
-      <c r="AC55" s="150" t="s">
+      <c r="AC55" s="165" t="s">
         <v>40</v>
       </c>
-      <c r="AD55" s="151"/>
-      <c r="AE55" s="151"/>
-      <c r="AF55" s="151"/>
-      <c r="AG55" s="152"/>
-      <c r="AH55" s="150" t="s">
+      <c r="AD55" s="166"/>
+      <c r="AE55" s="166"/>
+      <c r="AF55" s="166"/>
+      <c r="AG55" s="167"/>
+      <c r="AH55" s="165" t="s">
         <v>41</v>
       </c>
-      <c r="AI55" s="151"/>
-      <c r="AJ55" s="151"/>
-      <c r="AK55" s="151"/>
-      <c r="AL55" s="152"/>
+      <c r="AI55" s="166"/>
+      <c r="AJ55" s="166"/>
+      <c r="AK55" s="166"/>
+      <c r="AL55" s="167"/>
       <c r="AN55" s="37"/>
       <c r="AO55" s="38"/>
-      <c r="AP55" s="150" t="s">
+      <c r="AP55" s="165" t="s">
         <v>40</v>
       </c>
-      <c r="AQ55" s="151"/>
-      <c r="AR55" s="151"/>
-      <c r="AS55" s="151"/>
-      <c r="AT55" s="152"/>
-      <c r="AU55" s="150" t="s">
+      <c r="AQ55" s="166"/>
+      <c r="AR55" s="166"/>
+      <c r="AS55" s="166"/>
+      <c r="AT55" s="167"/>
+      <c r="AU55" s="165" t="s">
         <v>41</v>
       </c>
-      <c r="AV55" s="151"/>
-      <c r="AW55" s="151"/>
-      <c r="AX55" s="151"/>
-      <c r="AY55" s="152"/>
+      <c r="AV55" s="166"/>
+      <c r="AW55" s="166"/>
+      <c r="AX55" s="166"/>
+      <c r="AY55" s="167"/>
     </row>
     <row r="56" spans="1:51" ht="15.75" thickBot="1">
       <c r="A56" s="37"/>
       <c r="B56" s="38"/>
-      <c r="C56" s="153">
+      <c r="C56" s="158">
         <f>PRODUCT(C54,D30)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="154"/>
-      <c r="E56" s="154"/>
-      <c r="F56" s="154"/>
-      <c r="G56" s="155"/>
-      <c r="H56" s="156">
+      <c r="D56" s="159"/>
+      <c r="E56" s="159"/>
+      <c r="F56" s="159"/>
+      <c r="G56" s="160"/>
+      <c r="H56" s="161">
         <f>PRODUCT(D23,D18)</f>
         <v>-8.213336837000559E-3</v>
       </c>
-      <c r="I56" s="157"/>
-      <c r="J56" s="157"/>
-      <c r="K56" s="157"/>
-      <c r="L56" s="158"/>
+      <c r="I56" s="162"/>
+      <c r="J56" s="162"/>
+      <c r="K56" s="162"/>
+      <c r="L56" s="163"/>
       <c r="M56" s="30"/>
       <c r="N56" s="37"/>
       <c r="O56" s="38"/>
-      <c r="P56" s="153">
+      <c r="P56" s="158">
         <f>PRODUCT(Q30,D57)</f>
         <v>-3.6400185883286862E-3</v>
       </c>
-      <c r="Q56" s="154"/>
-      <c r="R56" s="154"/>
-      <c r="S56" s="154"/>
-      <c r="T56" s="155"/>
-      <c r="U56" s="156">
+      <c r="Q56" s="159"/>
+      <c r="R56" s="159"/>
+      <c r="S56" s="159"/>
+      <c r="T56" s="160"/>
+      <c r="U56" s="161">
         <f>PRODUCT(Q23,Q18)</f>
         <v>-1.2518939075045612E-2</v>
       </c>
-      <c r="V56" s="157"/>
-      <c r="W56" s="157"/>
-      <c r="X56" s="157"/>
-      <c r="Y56" s="158"/>
+      <c r="V56" s="162"/>
+      <c r="W56" s="162"/>
+      <c r="X56" s="162"/>
+      <c r="Y56" s="163"/>
       <c r="AA56" s="37"/>
       <c r="AB56" s="38"/>
-      <c r="AC56" s="153">
+      <c r="AC56" s="158">
         <f>PRODUCT(Q57,AD30)</f>
         <v>-7.1617725566596839E-3</v>
       </c>
-      <c r="AD56" s="154"/>
-      <c r="AE56" s="154"/>
-      <c r="AF56" s="154"/>
-      <c r="AG56" s="155"/>
-      <c r="AH56" s="156">
+      <c r="AD56" s="159"/>
+      <c r="AE56" s="159"/>
+      <c r="AF56" s="159"/>
+      <c r="AG56" s="160"/>
+      <c r="AH56" s="161">
         <f>PRODUCT(AD23,AD18)</f>
         <v>-1.3882800942258185E-2</v>
       </c>
-      <c r="AI56" s="157"/>
-      <c r="AJ56" s="157"/>
-      <c r="AK56" s="157"/>
-      <c r="AL56" s="158"/>
+      <c r="AI56" s="162"/>
+      <c r="AJ56" s="162"/>
+      <c r="AK56" s="162"/>
+      <c r="AL56" s="163"/>
       <c r="AN56" s="37"/>
       <c r="AO56" s="38"/>
-      <c r="AP56" s="153">
+      <c r="AP56" s="158">
         <f>PRODUCT(AD57,AQ30)</f>
         <v>-9.3059212013821453E-3</v>
       </c>
-      <c r="AQ56" s="154"/>
-      <c r="AR56" s="154"/>
-      <c r="AS56" s="154"/>
-      <c r="AT56" s="155"/>
-      <c r="AU56" s="156">
+      <c r="AQ56" s="159"/>
+      <c r="AR56" s="159"/>
+      <c r="AS56" s="159"/>
+      <c r="AT56" s="160"/>
+      <c r="AU56" s="161">
         <f>PRODUCT(AQ23,AQ18)</f>
         <v>-1.2522636172020386E-2</v>
       </c>
-      <c r="AV56" s="157"/>
-      <c r="AW56" s="157"/>
-      <c r="AX56" s="157"/>
-      <c r="AY56" s="158"/>
+      <c r="AV56" s="162"/>
+      <c r="AW56" s="162"/>
+      <c r="AX56" s="162"/>
+      <c r="AY56" s="163"/>
     </row>
     <row r="57" spans="1:51">
       <c r="A57" s="37"/>
@@ -24434,6 +24475,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="P42:U42"/>
+    <mergeCell ref="P55:T55"/>
+    <mergeCell ref="U55:Y55"/>
+    <mergeCell ref="P56:T56"/>
+    <mergeCell ref="U56:Y56"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:L55"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:L56"/>
     <mergeCell ref="AC55:AG55"/>
     <mergeCell ref="AH55:AL55"/>
     <mergeCell ref="AC56:AG56"/>
@@ -24444,16 +24495,6 @@
     <mergeCell ref="AP56:AT56"/>
     <mergeCell ref="AU56:AY56"/>
     <mergeCell ref="AC42:AH42"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="H55:L55"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="H56:L56"/>
-    <mergeCell ref="P42:U42"/>
-    <mergeCell ref="P55:T55"/>
-    <mergeCell ref="U55:Y55"/>
-    <mergeCell ref="P56:T56"/>
-    <mergeCell ref="U56:Y56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -24464,7 +24505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -24581,8 +24622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG64"/>
   <sheetViews>
-    <sheetView topLeftCell="G25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X45" sqref="X45"/>
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -24756,16 +24797,16 @@
       <c r="K35" s="65"/>
     </row>
     <row r="36" spans="1:27" ht="15" customHeight="1" thickBot="1">
-      <c r="H36" s="148" t="s">
+      <c r="H36" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="I36" s="148"/>
-      <c r="J36" s="148"/>
-      <c r="K36" s="148"/>
-      <c r="L36" s="148"/>
-      <c r="M36" s="148"/>
-      <c r="N36" s="148"/>
-      <c r="O36" s="148"/>
+      <c r="I36" s="157"/>
+      <c r="J36" s="157"/>
+      <c r="K36" s="157"/>
+      <c r="L36" s="157"/>
+      <c r="M36" s="157"/>
+      <c r="N36" s="157"/>
+      <c r="O36" s="157"/>
     </row>
     <row r="37" spans="1:27" ht="15" customHeight="1">
       <c r="A37" s="67" t="s">
@@ -25270,16 +25311,16 @@
       <c r="E52" s="30"/>
       <c r="F52" s="30"/>
       <c r="G52" s="30"/>
-      <c r="H52" s="148" t="s">
+      <c r="H52" s="157" t="s">
         <v>21</v>
       </c>
-      <c r="I52" s="148"/>
-      <c r="J52" s="148"/>
-      <c r="K52" s="148"/>
-      <c r="L52" s="148"/>
-      <c r="M52" s="148"/>
-      <c r="N52" s="148"/>
-      <c r="O52" s="148"/>
+      <c r="I52" s="157"/>
+      <c r="J52" s="157"/>
+      <c r="K52" s="157"/>
+      <c r="L52" s="157"/>
+      <c r="M52" s="157"/>
+      <c r="N52" s="157"/>
+      <c r="O52" s="157"/>
       <c r="P52" s="30"/>
       <c r="Q52" s="30"/>
       <c r="R52" s="30"/>
@@ -28894,84 +28935,84 @@
     <row r="59" spans="1:77">
       <c r="A59" s="13"/>
       <c r="B59" s="16"/>
-      <c r="C59" s="149" t="s">
+      <c r="C59" s="164" t="s">
         <v>39</v>
       </c>
-      <c r="D59" s="149"/>
-      <c r="E59" s="149"/>
-      <c r="F59" s="149"/>
-      <c r="G59" s="149"/>
-      <c r="H59" s="149"/>
+      <c r="D59" s="164"/>
+      <c r="E59" s="164"/>
+      <c r="F59" s="164"/>
+      <c r="G59" s="164"/>
+      <c r="H59" s="164"/>
       <c r="I59" s="16"/>
       <c r="J59" s="16"/>
       <c r="K59" s="16"/>
       <c r="L59" s="12"/>
       <c r="N59" s="37"/>
       <c r="O59" s="38"/>
-      <c r="P59" s="149" t="s">
+      <c r="P59" s="164" t="s">
         <v>39</v>
       </c>
-      <c r="Q59" s="149"/>
-      <c r="R59" s="149"/>
-      <c r="S59" s="149"/>
-      <c r="T59" s="149"/>
-      <c r="U59" s="149"/>
+      <c r="Q59" s="164"/>
+      <c r="R59" s="164"/>
+      <c r="S59" s="164"/>
+      <c r="T59" s="164"/>
+      <c r="U59" s="164"/>
       <c r="V59" s="38"/>
       <c r="W59" s="38"/>
       <c r="X59" s="38"/>
       <c r="Y59" s="39"/>
       <c r="AA59" s="37"/>
       <c r="AB59" s="38"/>
-      <c r="AC59" s="149" t="s">
+      <c r="AC59" s="164" t="s">
         <v>39</v>
       </c>
-      <c r="AD59" s="149"/>
-      <c r="AE59" s="149"/>
-      <c r="AF59" s="149"/>
-      <c r="AG59" s="149"/>
-      <c r="AH59" s="149"/>
+      <c r="AD59" s="164"/>
+      <c r="AE59" s="164"/>
+      <c r="AF59" s="164"/>
+      <c r="AG59" s="164"/>
+      <c r="AH59" s="164"/>
       <c r="AI59" s="38"/>
       <c r="AJ59" s="38"/>
       <c r="AK59" s="38"/>
       <c r="AL59" s="39"/>
       <c r="AN59" s="37"/>
       <c r="AO59" s="38"/>
-      <c r="AP59" s="149" t="s">
+      <c r="AP59" s="164" t="s">
         <v>39</v>
       </c>
-      <c r="AQ59" s="149"/>
-      <c r="AR59" s="149"/>
-      <c r="AS59" s="149"/>
-      <c r="AT59" s="149"/>
-      <c r="AU59" s="149"/>
+      <c r="AQ59" s="164"/>
+      <c r="AR59" s="164"/>
+      <c r="AS59" s="164"/>
+      <c r="AT59" s="164"/>
+      <c r="AU59" s="164"/>
       <c r="AV59" s="38"/>
       <c r="AW59" s="38"/>
       <c r="AX59" s="38"/>
       <c r="AY59" s="39"/>
       <c r="BA59" s="37"/>
       <c r="BB59" s="38"/>
-      <c r="BC59" s="149" t="s">
+      <c r="BC59" s="164" t="s">
         <v>39</v>
       </c>
-      <c r="BD59" s="149"/>
-      <c r="BE59" s="149"/>
-      <c r="BF59" s="149"/>
-      <c r="BG59" s="149"/>
-      <c r="BH59" s="149"/>
+      <c r="BD59" s="164"/>
+      <c r="BE59" s="164"/>
+      <c r="BF59" s="164"/>
+      <c r="BG59" s="164"/>
+      <c r="BH59" s="164"/>
       <c r="BI59" s="38"/>
       <c r="BJ59" s="38"/>
       <c r="BK59" s="38"/>
       <c r="BL59" s="39"/>
       <c r="BN59" s="37"/>
       <c r="BO59" s="38"/>
-      <c r="BP59" s="149" t="s">
+      <c r="BP59" s="164" t="s">
         <v>39</v>
       </c>
-      <c r="BQ59" s="149"/>
-      <c r="BR59" s="149"/>
-      <c r="BS59" s="149"/>
-      <c r="BT59" s="149"/>
-      <c r="BU59" s="149"/>
+      <c r="BQ59" s="164"/>
+      <c r="BR59" s="164"/>
+      <c r="BS59" s="164"/>
+      <c r="BT59" s="164"/>
+      <c r="BU59" s="164"/>
       <c r="BV59" s="38"/>
       <c r="BW59" s="38"/>
       <c r="BX59" s="38"/>
@@ -29214,88 +29255,88 @@
       <c r="L63" s="12"/>
       <c r="N63" s="37"/>
       <c r="O63" s="38"/>
-      <c r="P63" s="166" t="s">
+      <c r="P63" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="Q63" s="167"/>
-      <c r="R63" s="167"/>
-      <c r="S63" s="167"/>
-      <c r="T63" s="168"/>
-      <c r="U63" s="166" t="s">
+      <c r="Q63" s="149"/>
+      <c r="R63" s="149"/>
+      <c r="S63" s="149"/>
+      <c r="T63" s="150"/>
+      <c r="U63" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="V63" s="167"/>
-      <c r="W63" s="167"/>
-      <c r="X63" s="167"/>
-      <c r="Y63" s="168"/>
+      <c r="V63" s="149"/>
+      <c r="W63" s="149"/>
+      <c r="X63" s="149"/>
+      <c r="Y63" s="150"/>
       <c r="Z63" s="30"/>
       <c r="AA63" s="37"/>
       <c r="AB63" s="38"/>
-      <c r="AC63" s="166" t="s">
+      <c r="AC63" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="AD63" s="167"/>
-      <c r="AE63" s="167"/>
-      <c r="AF63" s="167"/>
-      <c r="AG63" s="168"/>
-      <c r="AH63" s="166" t="s">
+      <c r="AD63" s="149"/>
+      <c r="AE63" s="149"/>
+      <c r="AF63" s="149"/>
+      <c r="AG63" s="150"/>
+      <c r="AH63" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="AI63" s="167"/>
-      <c r="AJ63" s="167"/>
-      <c r="AK63" s="167"/>
-      <c r="AL63" s="168"/>
+      <c r="AI63" s="149"/>
+      <c r="AJ63" s="149"/>
+      <c r="AK63" s="149"/>
+      <c r="AL63" s="150"/>
       <c r="AM63" s="30"/>
       <c r="AN63" s="37"/>
       <c r="AO63" s="38"/>
-      <c r="AP63" s="166" t="s">
+      <c r="AP63" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="AQ63" s="167"/>
-      <c r="AR63" s="167"/>
-      <c r="AS63" s="167"/>
-      <c r="AT63" s="168"/>
-      <c r="AU63" s="166" t="s">
+      <c r="AQ63" s="149"/>
+      <c r="AR63" s="149"/>
+      <c r="AS63" s="149"/>
+      <c r="AT63" s="150"/>
+      <c r="AU63" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="AV63" s="167"/>
-      <c r="AW63" s="167"/>
-      <c r="AX63" s="167"/>
-      <c r="AY63" s="168"/>
+      <c r="AV63" s="149"/>
+      <c r="AW63" s="149"/>
+      <c r="AX63" s="149"/>
+      <c r="AY63" s="150"/>
       <c r="AZ63" s="30"/>
       <c r="BA63" s="37"/>
       <c r="BB63" s="38"/>
-      <c r="BC63" s="166" t="s">
+      <c r="BC63" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="BD63" s="167"/>
-      <c r="BE63" s="167"/>
-      <c r="BF63" s="167"/>
-      <c r="BG63" s="168"/>
-      <c r="BH63" s="166" t="s">
+      <c r="BD63" s="149"/>
+      <c r="BE63" s="149"/>
+      <c r="BF63" s="149"/>
+      <c r="BG63" s="150"/>
+      <c r="BH63" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="BI63" s="167"/>
-      <c r="BJ63" s="167"/>
-      <c r="BK63" s="167"/>
-      <c r="BL63" s="168"/>
+      <c r="BI63" s="149"/>
+      <c r="BJ63" s="149"/>
+      <c r="BK63" s="149"/>
+      <c r="BL63" s="150"/>
       <c r="BM63" s="30"/>
       <c r="BN63" s="37"/>
       <c r="BO63" s="38"/>
-      <c r="BP63" s="166" t="s">
+      <c r="BP63" s="148" t="s">
         <v>40</v>
       </c>
-      <c r="BQ63" s="167"/>
-      <c r="BR63" s="167"/>
-      <c r="BS63" s="167"/>
-      <c r="BT63" s="168"/>
-      <c r="BU63" s="166" t="s">
+      <c r="BQ63" s="149"/>
+      <c r="BR63" s="149"/>
+      <c r="BS63" s="149"/>
+      <c r="BT63" s="150"/>
+      <c r="BU63" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="BV63" s="167"/>
-      <c r="BW63" s="167"/>
-      <c r="BX63" s="167"/>
-      <c r="BY63" s="168"/>
+      <c r="BV63" s="149"/>
+      <c r="BW63" s="149"/>
+      <c r="BX63" s="149"/>
+      <c r="BY63" s="150"/>
     </row>
     <row r="64" spans="1:77" ht="15.75" thickBot="1">
       <c r="A64" s="13"/>
@@ -29312,98 +29353,98 @@
       <c r="L64" s="12"/>
       <c r="N64" s="37"/>
       <c r="O64" s="38"/>
-      <c r="P64" s="169">
+      <c r="P64" s="151">
         <f>PRODUCT(Q47,D74)</f>
         <v>-6.9668155644557389E-2</v>
       </c>
-      <c r="Q64" s="170"/>
-      <c r="R64" s="170"/>
-      <c r="S64" s="170"/>
-      <c r="T64" s="171"/>
-      <c r="U64" s="172">
+      <c r="Q64" s="152"/>
+      <c r="R64" s="152"/>
+      <c r="S64" s="152"/>
+      <c r="T64" s="153"/>
+      <c r="U64" s="154">
         <f>PRODUCT(Q40,Q35)</f>
         <v>-0.17696166752410394</v>
       </c>
-      <c r="V64" s="173"/>
-      <c r="W64" s="173"/>
-      <c r="X64" s="173"/>
-      <c r="Y64" s="174"/>
+      <c r="V64" s="155"/>
+      <c r="W64" s="155"/>
+      <c r="X64" s="155"/>
+      <c r="Y64" s="156"/>
       <c r="Z64" s="30"/>
       <c r="AA64" s="37"/>
       <c r="AB64" s="38"/>
-      <c r="AC64" s="169">
+      <c r="AC64" s="151">
         <f>PRODUCT(Q65,AD47)</f>
         <v>-0.10744158263873792</v>
       </c>
-      <c r="AD64" s="170"/>
-      <c r="AE64" s="170"/>
-      <c r="AF64" s="170"/>
-      <c r="AG64" s="171"/>
-      <c r="AH64" s="172">
+      <c r="AD64" s="152"/>
+      <c r="AE64" s="152"/>
+      <c r="AF64" s="152"/>
+      <c r="AG64" s="153"/>
+      <c r="AH64" s="154">
         <f>PRODUCT(AD40,AD35)</f>
         <v>-0.1871706217285404</v>
       </c>
-      <c r="AI64" s="173"/>
-      <c r="AJ64" s="173"/>
-      <c r="AK64" s="173"/>
-      <c r="AL64" s="174"/>
+      <c r="AI64" s="155"/>
+      <c r="AJ64" s="155"/>
+      <c r="AK64" s="155"/>
+      <c r="AL64" s="156"/>
       <c r="AM64" s="30"/>
       <c r="AN64" s="37"/>
       <c r="AO64" s="38"/>
-      <c r="AP64" s="169">
+      <c r="AP64" s="151">
         <f>PRODUCT(AD65,AQ47)</f>
         <v>-0.12761573903347123</v>
       </c>
-      <c r="AQ64" s="170"/>
-      <c r="AR64" s="170"/>
-      <c r="AS64" s="170"/>
-      <c r="AT64" s="171"/>
-      <c r="AU64" s="172">
+      <c r="AQ64" s="152"/>
+      <c r="AR64" s="152"/>
+      <c r="AS64" s="152"/>
+      <c r="AT64" s="153"/>
+      <c r="AU64" s="154">
         <f>PRODUCT(AQ40,AQ35)</f>
         <v>-0.18965682363364356</v>
       </c>
-      <c r="AV64" s="173"/>
-      <c r="AW64" s="173"/>
-      <c r="AX64" s="173"/>
-      <c r="AY64" s="174"/>
+      <c r="AV64" s="155"/>
+      <c r="AW64" s="155"/>
+      <c r="AX64" s="155"/>
+      <c r="AY64" s="156"/>
       <c r="AZ64" s="30"/>
       <c r="BA64" s="37"/>
       <c r="BB64" s="38"/>
-      <c r="BC64" s="169">
+      <c r="BC64" s="151">
         <f>PRODUCT(AQ65,BD47)</f>
         <v>-0.1369062256468544</v>
       </c>
-      <c r="BD64" s="170"/>
-      <c r="BE64" s="170"/>
-      <c r="BF64" s="170"/>
-      <c r="BG64" s="171"/>
-      <c r="BH64" s="172">
+      <c r="BD64" s="152"/>
+      <c r="BE64" s="152"/>
+      <c r="BF64" s="152"/>
+      <c r="BG64" s="153"/>
+      <c r="BH64" s="154">
         <f>PRODUCT(BD40,BD35)</f>
         <v>-0.19055389055354507</v>
       </c>
-      <c r="BI64" s="173"/>
-      <c r="BJ64" s="173"/>
-      <c r="BK64" s="173"/>
-      <c r="BL64" s="174"/>
+      <c r="BI64" s="155"/>
+      <c r="BJ64" s="155"/>
+      <c r="BK64" s="155"/>
+      <c r="BL64" s="156"/>
       <c r="BM64" s="30"/>
       <c r="BN64" s="37"/>
       <c r="BO64" s="38"/>
-      <c r="BP64" s="169">
+      <c r="BP64" s="151">
         <f>PRODUCT(BD65,BQ47)</f>
         <v>-0.14132266673598051</v>
       </c>
-      <c r="BQ64" s="170"/>
-      <c r="BR64" s="170"/>
-      <c r="BS64" s="170"/>
-      <c r="BT64" s="171"/>
-      <c r="BU64" s="172">
+      <c r="BQ64" s="152"/>
+      <c r="BR64" s="152"/>
+      <c r="BS64" s="152"/>
+      <c r="BT64" s="153"/>
+      <c r="BU64" s="154">
         <f>PRODUCT(BQ40,BQ35)</f>
         <v>-0.19276759307663355</v>
       </c>
-      <c r="BV64" s="173"/>
-      <c r="BW64" s="173"/>
-      <c r="BX64" s="173"/>
-      <c r="BY64" s="174"/>
+      <c r="BV64" s="155"/>
+      <c r="BW64" s="155"/>
+      <c r="BX64" s="155"/>
+      <c r="BY64" s="156"/>
     </row>
     <row r="65" spans="1:85">
       <c r="A65" s="13"/>
@@ -30006,20 +30047,20 @@
     <row r="72" spans="1:85">
       <c r="A72" s="13"/>
       <c r="B72" s="16"/>
-      <c r="C72" s="150" t="s">
+      <c r="C72" s="165" t="s">
         <v>40</v>
       </c>
-      <c r="D72" s="151"/>
-      <c r="E72" s="151"/>
-      <c r="F72" s="151"/>
-      <c r="G72" s="152"/>
-      <c r="H72" s="150" t="s">
+      <c r="D72" s="166"/>
+      <c r="E72" s="166"/>
+      <c r="F72" s="166"/>
+      <c r="G72" s="167"/>
+      <c r="H72" s="165" t="s">
         <v>41</v>
       </c>
-      <c r="I72" s="151"/>
-      <c r="J72" s="151"/>
-      <c r="K72" s="151"/>
-      <c r="L72" s="152"/>
+      <c r="I72" s="166"/>
+      <c r="J72" s="166"/>
+      <c r="K72" s="166"/>
+      <c r="L72" s="167"/>
       <c r="N72" s="37"/>
       <c r="O72" s="38"/>
       <c r="P72" s="38" t="s">
@@ -30109,22 +30150,22 @@
     <row r="73" spans="1:85" ht="15.75" thickBot="1">
       <c r="A73" s="13"/>
       <c r="B73" s="16"/>
-      <c r="C73" s="153">
+      <c r="C73" s="158">
         <f>PRODUCT(C71,D47)</f>
         <v>0</v>
       </c>
-      <c r="D73" s="154"/>
-      <c r="E73" s="154"/>
-      <c r="F73" s="154"/>
-      <c r="G73" s="155"/>
-      <c r="H73" s="156">
+      <c r="D73" s="159"/>
+      <c r="E73" s="159"/>
+      <c r="F73" s="159"/>
+      <c r="G73" s="160"/>
+      <c r="H73" s="161">
         <f>PRODUCT(D40,D35)</f>
         <v>-0.15914104345003202</v>
       </c>
-      <c r="I73" s="157"/>
-      <c r="J73" s="157"/>
-      <c r="K73" s="157"/>
-      <c r="L73" s="158"/>
+      <c r="I73" s="162"/>
+      <c r="J73" s="162"/>
+      <c r="K73" s="162"/>
+      <c r="L73" s="163"/>
       <c r="N73" s="40"/>
       <c r="O73" s="41"/>
       <c r="P73" s="41"/>
@@ -30288,31 +30329,31 @@
       <c r="BQ75" s="30"/>
       <c r="BR75" s="30"/>
       <c r="BZ75" t="str">
-        <f>A84</f>
+        <f t="shared" ref="BZ75:CA80" si="6">A84</f>
         <v>C_bar</v>
       </c>
       <c r="CA75">
-        <f>B84</f>
+        <f t="shared" si="6"/>
         <v>-0.23329348191833127</v>
       </c>
       <c r="CB75">
-        <f>O75</f>
+        <f t="shared" ref="CB75:CB80" si="7">O75</f>
         <v>-0.25679647921766369</v>
       </c>
       <c r="CC75">
-        <f>AB75</f>
+        <f t="shared" ref="CC75:CC80" si="8">AB75</f>
         <v>-0.26951024301880971</v>
       </c>
       <c r="CD75">
-        <f>AO75</f>
+        <f t="shared" ref="CD75:CD80" si="9">AO75</f>
         <v>-0.27413208652665988</v>
       </c>
       <c r="CE75">
-        <f>BB75</f>
+        <f t="shared" ref="CE75:CE80" si="10">BB75</f>
         <v>-0.27642199985229848</v>
       </c>
       <c r="CF75">
-        <f>BO75</f>
+        <f t="shared" ref="CF75:CF80" si="11">BO75</f>
         <v>-0.27873366468967264</v>
       </c>
     </row>
@@ -30382,31 +30423,31 @@
       <c r="BQ76" s="30"/>
       <c r="BR76" s="30"/>
       <c r="BZ76" t="str">
-        <f>A85</f>
+        <f t="shared" si="6"/>
         <v>i</v>
       </c>
       <c r="CA76">
-        <f>B85</f>
+        <f t="shared" si="6"/>
         <v>0.68214954889199308</v>
       </c>
       <c r="CB76">
-        <f>O76</f>
+        <f t="shared" si="7"/>
         <v>0.68911251456103173</v>
       </c>
       <c r="CC76">
-        <f>AB76</f>
+        <f t="shared" si="8"/>
         <v>0.69448426016029885</v>
       </c>
       <c r="CD76">
-        <f>AO76</f>
+        <f t="shared" si="9"/>
         <v>0.69184467253233806</v>
       </c>
       <c r="CE76">
-        <f>BB76</f>
+        <f t="shared" si="10"/>
         <v>0.6893586279506132</v>
       </c>
       <c r="CF76">
-        <f>BO76</f>
+        <f t="shared" si="11"/>
         <v>0.69158346298517914</v>
       </c>
     </row>
@@ -30476,31 +30517,31 @@
       <c r="BQ77" s="30"/>
       <c r="BR77" s="30"/>
       <c r="BZ77" t="str">
-        <f>A86</f>
+        <f t="shared" si="6"/>
         <v>f</v>
       </c>
       <c r="CA77">
-        <f>B86</f>
+        <f t="shared" si="6"/>
         <v>0.44278136771019744</v>
       </c>
       <c r="CB77">
-        <f>O77</f>
+        <f t="shared" si="7"/>
         <v>0.43777616467892633</v>
       </c>
       <c r="CC77">
-        <f>AB77</f>
+        <f t="shared" si="8"/>
         <v>0.43563905312968765</v>
       </c>
       <c r="CD77">
-        <f>AO77</f>
+        <f t="shared" si="9"/>
         <v>0.4331651477492055</v>
       </c>
       <c r="CE77">
-        <f>BB77</f>
+        <f t="shared" si="10"/>
         <v>0.43150981760278345</v>
       </c>
       <c r="CF77">
-        <f>BO77</f>
+        <f t="shared" si="11"/>
         <v>0.43157215106310437</v>
       </c>
     </row>
@@ -30568,31 +30609,31 @@
       <c r="BQ78" s="30"/>
       <c r="BR78" s="30"/>
       <c r="BZ78" t="str">
-        <f>A87</f>
+        <f t="shared" si="6"/>
         <v>o</v>
       </c>
       <c r="CA78">
-        <f>B87</f>
+        <f t="shared" si="6"/>
         <v>0.74883733572737865</v>
       </c>
       <c r="CB78">
-        <f>O78</f>
+        <f t="shared" si="7"/>
         <v>0.74323714790399242</v>
       </c>
       <c r="CC78">
-        <f>AB78</f>
+        <f t="shared" si="8"/>
         <v>0.7364182183080249</v>
       </c>
       <c r="CD78">
-        <f>AO78</f>
+        <f t="shared" si="9"/>
         <v>0.74454211980519058</v>
       </c>
       <c r="CE78">
-        <f>BB78</f>
+        <f t="shared" si="10"/>
         <v>0.75113675353066278</v>
       </c>
       <c r="CF78">
-        <f>BO78</f>
+        <f t="shared" si="11"/>
         <v>0.74713602429127657</v>
       </c>
     </row>
@@ -30665,31 +30706,31 @@
       <c r="BQ79" s="30"/>
       <c r="BR79" s="30"/>
       <c r="BZ79" t="str">
-        <f>A88</f>
+        <f t="shared" si="6"/>
         <v>C</v>
       </c>
       <c r="CA79">
-        <f>B88</f>
+        <f t="shared" si="6"/>
         <v>-0.15914104345003202</v>
       </c>
       <c r="CB79">
-        <f>O79</f>
+        <f t="shared" si="7"/>
         <v>-0.24662982316866133</v>
       </c>
       <c r="CC79">
-        <f>AB79</f>
+        <f t="shared" si="8"/>
         <v>-0.29461220436727831</v>
       </c>
       <c r="CD79">
-        <f>AO79</f>
+        <f t="shared" si="9"/>
         <v>-0.31727256266711479</v>
       </c>
       <c r="CE79">
-        <f>BB79</f>
+        <f t="shared" si="10"/>
         <v>-0.3274601162003995</v>
       </c>
       <c r="CF79">
-        <f>BO79</f>
+        <f t="shared" si="11"/>
         <v>-0.33409025981261409</v>
       </c>
     </row>
@@ -30757,31 +30798,31 @@
       <c r="BQ80" s="30"/>
       <c r="BR80" s="30"/>
       <c r="BZ80" t="str">
-        <f>A89</f>
+        <f t="shared" si="6"/>
         <v>h</v>
       </c>
       <c r="CA80">
-        <f>B89</f>
+        <f t="shared" si="6"/>
         <v>-0.11817480863295614</v>
       </c>
       <c r="CB80">
-        <f>O80</f>
+        <f t="shared" si="7"/>
         <v>-0.17967612454246656</v>
       </c>
       <c r="CC80">
-        <f>AB80</f>
+        <f t="shared" si="8"/>
         <v>-0.21089128014610348</v>
       </c>
       <c r="CD80">
-        <f>AO80</f>
+        <f t="shared" si="9"/>
         <v>-0.22860322966705135</v>
       </c>
       <c r="CE80">
-        <f>BB80</f>
+        <f t="shared" si="10"/>
         <v>-0.2375370347419887</v>
       </c>
       <c r="CF80">
-        <f>BO80</f>
+        <f t="shared" si="11"/>
         <v>-0.2407206932719145</v>
       </c>
     </row>
@@ -31230,10 +31271,10 @@
       <c r="U32" t="s">
         <v>202</v>
       </c>
-      <c r="V32" s="149" t="s">
+      <c r="V32" s="164" t="s">
         <v>125</v>
       </c>
-      <c r="W32" s="149"/>
+      <c r="W32" s="164"/>
       <c r="X32" s="47"/>
       <c r="Y32" s="47" t="s">
         <v>59</v>
@@ -31457,8 +31498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EE263"/>
   <sheetViews>
-    <sheetView topLeftCell="CF88" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="DI122" sqref="DI122"/>
+    <sheetView topLeftCell="CU88" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="CX119" sqref="CX119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32889,10 +32930,10 @@
       <c r="AE20" s="39"/>
       <c r="AF20" s="38"/>
       <c r="AG20" s="38"/>
-      <c r="AH20" s="160" t="s">
+      <c r="AH20" s="172" t="s">
         <v>65</v>
       </c>
-      <c r="AI20" s="160"/>
+      <c r="AI20" s="172"/>
       <c r="AJ20" s="81"/>
       <c r="AK20" s="38"/>
       <c r="AL20" s="38"/>
@@ -32910,10 +32951,10 @@
       <c r="AX20" s="38"/>
       <c r="AY20" s="37"/>
       <c r="AZ20" s="38"/>
-      <c r="BA20" s="160" t="s">
+      <c r="BA20" s="172" t="s">
         <v>65</v>
       </c>
-      <c r="BB20" s="160"/>
+      <c r="BB20" s="172"/>
       <c r="BC20" s="81"/>
       <c r="BD20" s="38"/>
       <c r="BE20" s="38"/>
@@ -32931,10 +32972,10 @@
       <c r="BQ20" s="38"/>
       <c r="BR20" s="37"/>
       <c r="BS20" s="38"/>
-      <c r="BT20" s="160" t="s">
+      <c r="BT20" s="172" t="s">
         <v>65</v>
       </c>
-      <c r="BU20" s="160"/>
+      <c r="BU20" s="172"/>
       <c r="BV20" s="81"/>
       <c r="BW20" s="38"/>
       <c r="BX20" s="38"/>
@@ -32947,10 +32988,10 @@
       <c r="CE20" s="38"/>
       <c r="CK20" s="37"/>
       <c r="CL20" s="38"/>
-      <c r="CM20" s="160" t="s">
+      <c r="CM20" s="172" t="s">
         <v>65</v>
       </c>
-      <c r="CN20" s="160"/>
+      <c r="CN20" s="172"/>
       <c r="CO20" s="81"/>
       <c r="CP20" s="38"/>
       <c r="CQ20" s="38"/>
@@ -32963,10 +33004,10 @@
       <c r="CX20" s="38"/>
       <c r="DD20" s="37"/>
       <c r="DE20" s="38"/>
-      <c r="DF20" s="160" t="s">
+      <c r="DF20" s="172" t="s">
         <v>65</v>
       </c>
-      <c r="DG20" s="160"/>
+      <c r="DG20" s="172"/>
       <c r="DH20" s="81"/>
       <c r="DI20" s="38"/>
       <c r="DJ20" s="38"/>
@@ -32979,10 +33020,10 @@
       <c r="DQ20" s="38"/>
       <c r="DW20" s="37"/>
       <c r="DX20" s="38"/>
-      <c r="DY20" s="160" t="s">
+      <c r="DY20" s="172" t="s">
         <v>65</v>
       </c>
-      <c r="DZ20" s="160"/>
+      <c r="DZ20" s="172"/>
       <c r="EA20" s="81"/>
       <c r="EB20" s="38"/>
       <c r="EC20" s="38"/>
@@ -33416,11 +33457,11 @@
       <c r="AB24" s="144" t="s">
         <v>69</v>
       </c>
-      <c r="AC24" s="149" t="s">
+      <c r="AC24" s="164" t="s">
         <v>70</v>
       </c>
-      <c r="AD24" s="149"/>
-      <c r="AE24" s="161"/>
+      <c r="AD24" s="164"/>
+      <c r="AE24" s="173"/>
       <c r="AF24" s="38"/>
       <c r="AG24" s="38"/>
       <c r="AH24" s="38"/>
@@ -33442,11 +33483,11 @@
       <c r="AU24" s="144" t="s">
         <v>69</v>
       </c>
-      <c r="AV24" s="149" t="s">
+      <c r="AV24" s="164" t="s">
         <v>70</v>
       </c>
-      <c r="AW24" s="149"/>
-      <c r="AX24" s="161"/>
+      <c r="AW24" s="164"/>
+      <c r="AX24" s="173"/>
       <c r="AY24" s="38"/>
       <c r="AZ24" s="38"/>
       <c r="BA24" s="38"/>
@@ -33468,11 +33509,11 @@
       <c r="BN24" s="144" t="s">
         <v>69</v>
       </c>
-      <c r="BO24" s="149" t="s">
+      <c r="BO24" s="164" t="s">
         <v>70</v>
       </c>
-      <c r="BP24" s="149"/>
-      <c r="BQ24" s="161"/>
+      <c r="BP24" s="164"/>
+      <c r="BQ24" s="173"/>
       <c r="BR24" s="38"/>
       <c r="BS24" s="38"/>
       <c r="BT24" s="38"/>
@@ -33494,11 +33535,11 @@
       <c r="CG24" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="CH24" s="149" t="s">
+      <c r="CH24" s="164" t="s">
         <v>70</v>
       </c>
-      <c r="CI24" s="149"/>
-      <c r="CJ24" s="161"/>
+      <c r="CI24" s="164"/>
+      <c r="CJ24" s="173"/>
       <c r="CK24" s="38"/>
       <c r="CL24" s="38"/>
       <c r="CM24" s="38"/>
@@ -33520,11 +33561,11 @@
       <c r="CZ24" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="DA24" s="149" t="s">
+      <c r="DA24" s="164" t="s">
         <v>70</v>
       </c>
-      <c r="DB24" s="149"/>
-      <c r="DC24" s="161"/>
+      <c r="DB24" s="164"/>
+      <c r="DC24" s="173"/>
       <c r="DD24" s="38"/>
       <c r="DE24" s="38"/>
       <c r="DF24" s="38"/>
@@ -33546,11 +33587,11 @@
       <c r="DS24" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="DT24" s="149" t="s">
+      <c r="DT24" s="164" t="s">
         <v>70</v>
       </c>
-      <c r="DU24" s="149"/>
-      <c r="DV24" s="161"/>
+      <c r="DU24" s="164"/>
+      <c r="DV24" s="173"/>
       <c r="DW24" s="38"/>
       <c r="DX24" s="38"/>
       <c r="DY24" s="38"/>
@@ -33696,20 +33737,20 @@
       <c r="EE25" s="45"/>
     </row>
     <row r="26" spans="22:135">
-      <c r="V26" s="162"/>
-      <c r="W26" s="149"/>
-      <c r="X26" s="149"/>
+      <c r="V26" s="174"/>
+      <c r="W26" s="164"/>
+      <c r="X26" s="164"/>
       <c r="Y26" s="38"/>
       <c r="Z26" s="38"/>
       <c r="AA26" s="37"/>
       <c r="AB26" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="AC26" s="149" t="s">
+      <c r="AC26" s="164" t="s">
         <v>72</v>
       </c>
-      <c r="AD26" s="149"/>
-      <c r="AE26" s="161"/>
+      <c r="AD26" s="164"/>
+      <c r="AE26" s="173"/>
       <c r="AF26" s="38"/>
       <c r="AG26" s="38"/>
       <c r="AH26" s="38"/>
@@ -33719,20 +33760,20 @@
       <c r="AL26" s="38"/>
       <c r="AM26" s="73"/>
       <c r="AN26" s="30"/>
-      <c r="AO26" s="162"/>
-      <c r="AP26" s="149"/>
-      <c r="AQ26" s="149"/>
+      <c r="AO26" s="174"/>
+      <c r="AP26" s="164"/>
+      <c r="AQ26" s="164"/>
       <c r="AR26" s="38"/>
       <c r="AS26" s="38"/>
       <c r="AT26" s="37"/>
       <c r="AU26" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="AV26" s="149" t="s">
+      <c r="AV26" s="164" t="s">
         <v>72</v>
       </c>
-      <c r="AW26" s="149"/>
-      <c r="AX26" s="161"/>
+      <c r="AW26" s="164"/>
+      <c r="AX26" s="173"/>
       <c r="AY26" s="38"/>
       <c r="AZ26" s="38"/>
       <c r="BA26" s="38"/>
@@ -33742,20 +33783,20 @@
       <c r="BE26" s="38"/>
       <c r="BF26" s="73"/>
       <c r="BG26" s="30"/>
-      <c r="BH26" s="162"/>
-      <c r="BI26" s="149"/>
-      <c r="BJ26" s="149"/>
+      <c r="BH26" s="174"/>
+      <c r="BI26" s="164"/>
+      <c r="BJ26" s="164"/>
       <c r="BK26" s="38"/>
       <c r="BL26" s="38"/>
       <c r="BM26" s="37"/>
       <c r="BN26" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="BO26" s="149" t="s">
+      <c r="BO26" s="164" t="s">
         <v>72</v>
       </c>
-      <c r="BP26" s="149"/>
-      <c r="BQ26" s="161"/>
+      <c r="BP26" s="164"/>
+      <c r="BQ26" s="173"/>
       <c r="BR26" s="38"/>
       <c r="BS26" s="38"/>
       <c r="BT26" s="38"/>
@@ -33765,20 +33806,20 @@
       <c r="BX26" s="38"/>
       <c r="BY26" s="73"/>
       <c r="BZ26" s="30"/>
-      <c r="CA26" s="162"/>
-      <c r="CB26" s="149"/>
-      <c r="CC26" s="149"/>
+      <c r="CA26" s="174"/>
+      <c r="CB26" s="164"/>
+      <c r="CC26" s="164"/>
       <c r="CD26" s="38"/>
       <c r="CE26" s="38"/>
       <c r="CF26" s="37"/>
       <c r="CG26" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="CH26" s="149" t="s">
+      <c r="CH26" s="164" t="s">
         <v>72</v>
       </c>
-      <c r="CI26" s="149"/>
-      <c r="CJ26" s="161"/>
+      <c r="CI26" s="164"/>
+      <c r="CJ26" s="173"/>
       <c r="CK26" s="38"/>
       <c r="CL26" s="38"/>
       <c r="CM26" s="38"/>
@@ -33788,20 +33829,20 @@
       <c r="CQ26" s="38"/>
       <c r="CR26" s="73"/>
       <c r="CS26" s="30"/>
-      <c r="CT26" s="162"/>
-      <c r="CU26" s="149"/>
-      <c r="CV26" s="149"/>
+      <c r="CT26" s="174"/>
+      <c r="CU26" s="164"/>
+      <c r="CV26" s="164"/>
       <c r="CW26" s="38"/>
       <c r="CX26" s="38"/>
       <c r="CY26" s="37"/>
       <c r="CZ26" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="DA26" s="149" t="s">
+      <c r="DA26" s="164" t="s">
         <v>72</v>
       </c>
-      <c r="DB26" s="149"/>
-      <c r="DC26" s="161"/>
+      <c r="DB26" s="164"/>
+      <c r="DC26" s="173"/>
       <c r="DD26" s="38"/>
       <c r="DE26" s="38"/>
       <c r="DF26" s="38"/>
@@ -33811,20 +33852,20 @@
       <c r="DJ26" s="38"/>
       <c r="DK26" s="73"/>
       <c r="DL26" s="30"/>
-      <c r="DM26" s="162"/>
-      <c r="DN26" s="149"/>
-      <c r="DO26" s="149"/>
+      <c r="DM26" s="174"/>
+      <c r="DN26" s="164"/>
+      <c r="DO26" s="164"/>
       <c r="DP26" s="38"/>
       <c r="DQ26" s="38"/>
       <c r="DR26" s="37"/>
       <c r="DS26" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="DT26" s="149" t="s">
+      <c r="DT26" s="164" t="s">
         <v>72</v>
       </c>
-      <c r="DU26" s="149"/>
-      <c r="DV26" s="161"/>
+      <c r="DU26" s="164"/>
+      <c r="DV26" s="173"/>
       <c r="DW26" s="38"/>
       <c r="DX26" s="38"/>
       <c r="DY26" s="38"/>
@@ -34110,11 +34151,11 @@
       <c r="EE28" s="45"/>
     </row>
     <row r="29" spans="22:135">
-      <c r="V29" s="162"/>
-      <c r="W29" s="149"/>
-      <c r="X29" s="149"/>
-      <c r="Y29" s="149"/>
-      <c r="Z29" s="149"/>
+      <c r="V29" s="174"/>
+      <c r="W29" s="164"/>
+      <c r="X29" s="164"/>
+      <c r="Y29" s="164"/>
+      <c r="Z29" s="164"/>
       <c r="AA29" s="37"/>
       <c r="AB29" s="38"/>
       <c r="AC29" s="38">
@@ -34132,11 +34173,11 @@
       <c r="AL29" s="38"/>
       <c r="AM29" s="73"/>
       <c r="AN29" s="30"/>
-      <c r="AO29" s="162"/>
-      <c r="AP29" s="149"/>
-      <c r="AQ29" s="149"/>
-      <c r="AR29" s="149"/>
-      <c r="AS29" s="149"/>
+      <c r="AO29" s="174"/>
+      <c r="AP29" s="164"/>
+      <c r="AQ29" s="164"/>
+      <c r="AR29" s="164"/>
+      <c r="AS29" s="164"/>
       <c r="AT29" s="38"/>
       <c r="AU29" s="38"/>
       <c r="AV29" s="38">
@@ -34154,11 +34195,11 @@
       <c r="BE29" s="38"/>
       <c r="BF29" s="73"/>
       <c r="BG29" s="30"/>
-      <c r="BH29" s="162"/>
-      <c r="BI29" s="149"/>
-      <c r="BJ29" s="149"/>
-      <c r="BK29" s="149"/>
-      <c r="BL29" s="149"/>
+      <c r="BH29" s="174"/>
+      <c r="BI29" s="164"/>
+      <c r="BJ29" s="164"/>
+      <c r="BK29" s="164"/>
+      <c r="BL29" s="164"/>
       <c r="BM29" s="37"/>
       <c r="BN29" s="38"/>
       <c r="BO29" s="38">
@@ -34176,11 +34217,11 @@
       <c r="BX29" s="38"/>
       <c r="BY29" s="73"/>
       <c r="BZ29" s="30"/>
-      <c r="CA29" s="162"/>
-      <c r="CB29" s="149"/>
-      <c r="CC29" s="149"/>
-      <c r="CD29" s="149"/>
-      <c r="CE29" s="149"/>
+      <c r="CA29" s="174"/>
+      <c r="CB29" s="164"/>
+      <c r="CC29" s="164"/>
+      <c r="CD29" s="164"/>
+      <c r="CE29" s="164"/>
       <c r="CF29" s="37"/>
       <c r="CG29" s="38"/>
       <c r="CH29" s="38">
@@ -34198,11 +34239,11 @@
       <c r="CQ29" s="38"/>
       <c r="CR29" s="73"/>
       <c r="CS29" s="30"/>
-      <c r="CT29" s="162"/>
-      <c r="CU29" s="149"/>
-      <c r="CV29" s="149"/>
-      <c r="CW29" s="149"/>
-      <c r="CX29" s="149"/>
+      <c r="CT29" s="174"/>
+      <c r="CU29" s="164"/>
+      <c r="CV29" s="164"/>
+      <c r="CW29" s="164"/>
+      <c r="CX29" s="164"/>
       <c r="CY29" s="37"/>
       <c r="CZ29" s="38"/>
       <c r="DA29" s="38">
@@ -34220,11 +34261,11 @@
       <c r="DJ29" s="38"/>
       <c r="DK29" s="73"/>
       <c r="DL29" s="30"/>
-      <c r="DM29" s="162"/>
-      <c r="DN29" s="149"/>
-      <c r="DO29" s="149"/>
-      <c r="DP29" s="149"/>
-      <c r="DQ29" s="149"/>
+      <c r="DM29" s="174"/>
+      <c r="DN29" s="164"/>
+      <c r="DO29" s="164"/>
+      <c r="DP29" s="164"/>
+      <c r="DQ29" s="164"/>
       <c r="DR29" s="37"/>
       <c r="DS29" s="38"/>
       <c r="DT29" s="38">
@@ -35108,10 +35149,10 @@
       <c r="AA36" s="54">
         <v>4</v>
       </c>
-      <c r="AB36" s="163" t="s">
+      <c r="AB36" s="170" t="s">
         <v>80</v>
       </c>
-      <c r="AC36" s="163"/>
+      <c r="AC36" s="170"/>
       <c r="AD36" s="35"/>
       <c r="AE36" s="35"/>
       <c r="AF36" s="35"/>
@@ -35135,10 +35176,10 @@
       <c r="AT36" s="54">
         <v>4</v>
       </c>
-      <c r="AU36" s="163" t="s">
+      <c r="AU36" s="170" t="s">
         <v>80</v>
       </c>
-      <c r="AV36" s="163"/>
+      <c r="AV36" s="170"/>
       <c r="AW36" s="35"/>
       <c r="AX36" s="35"/>
       <c r="AY36" s="35"/>
@@ -35162,10 +35203,10 @@
       <c r="BM36" s="54">
         <v>4</v>
       </c>
-      <c r="BN36" s="163" t="s">
+      <c r="BN36" s="170" t="s">
         <v>80</v>
       </c>
-      <c r="BO36" s="163"/>
+      <c r="BO36" s="170"/>
       <c r="BP36" s="35"/>
       <c r="BQ36" s="35"/>
       <c r="BR36" s="35"/>
@@ -35189,10 +35230,10 @@
       <c r="CF36" s="54">
         <v>4</v>
       </c>
-      <c r="CG36" s="163" t="s">
+      <c r="CG36" s="170" t="s">
         <v>80</v>
       </c>
-      <c r="CH36" s="163"/>
+      <c r="CH36" s="170"/>
       <c r="CI36" s="35"/>
       <c r="CJ36" s="35"/>
       <c r="CK36" s="35"/>
@@ -35216,10 +35257,10 @@
       <c r="CY36" s="54">
         <v>4</v>
       </c>
-      <c r="CZ36" s="163" t="s">
+      <c r="CZ36" s="170" t="s">
         <v>80</v>
       </c>
-      <c r="DA36" s="163"/>
+      <c r="DA36" s="170"/>
       <c r="DB36" s="35"/>
       <c r="DC36" s="35"/>
       <c r="DD36" s="35"/>
@@ -35243,10 +35284,10 @@
       <c r="DR36" s="54">
         <v>4</v>
       </c>
-      <c r="DS36" s="163" t="s">
+      <c r="DS36" s="170" t="s">
         <v>80</v>
       </c>
-      <c r="DT36" s="163"/>
+      <c r="DT36" s="170"/>
       <c r="DU36" s="35"/>
       <c r="DV36" s="35"/>
       <c r="DW36" s="35"/>
@@ -35572,10 +35613,10 @@
       <c r="AA39" s="50">
         <v>5</v>
       </c>
-      <c r="AB39" s="164" t="s">
+      <c r="AB39" s="168" t="s">
         <v>83</v>
       </c>
-      <c r="AC39" s="164"/>
+      <c r="AC39" s="168"/>
       <c r="AD39" s="38"/>
       <c r="AE39" s="38"/>
       <c r="AF39" s="38"/>
@@ -35595,10 +35636,10 @@
       <c r="AT39" s="111">
         <v>5</v>
       </c>
-      <c r="AU39" s="164" t="s">
+      <c r="AU39" s="168" t="s">
         <v>83</v>
       </c>
-      <c r="AV39" s="164"/>
+      <c r="AV39" s="168"/>
       <c r="AW39" s="38"/>
       <c r="AX39" s="38"/>
       <c r="AY39" s="38"/>
@@ -35618,10 +35659,10 @@
       <c r="BM39" s="111">
         <v>5</v>
       </c>
-      <c r="BN39" s="164" t="s">
+      <c r="BN39" s="168" t="s">
         <v>83</v>
       </c>
-      <c r="BO39" s="164"/>
+      <c r="BO39" s="168"/>
       <c r="BP39" s="38"/>
       <c r="BQ39" s="38"/>
       <c r="BR39" s="38"/>
@@ -35641,10 +35682,10 @@
       <c r="CF39" s="111">
         <v>5</v>
       </c>
-      <c r="CG39" s="164" t="s">
+      <c r="CG39" s="168" t="s">
         <v>83</v>
       </c>
-      <c r="CH39" s="164"/>
+      <c r="CH39" s="168"/>
       <c r="CI39" s="38"/>
       <c r="CJ39" s="38"/>
       <c r="CK39" s="38"/>
@@ -35664,10 +35705,10 @@
       <c r="CY39" s="111">
         <v>5</v>
       </c>
-      <c r="CZ39" s="164" t="s">
+      <c r="CZ39" s="168" t="s">
         <v>83</v>
       </c>
-      <c r="DA39" s="164"/>
+      <c r="DA39" s="168"/>
       <c r="DB39" s="38"/>
       <c r="DC39" s="38"/>
       <c r="DD39" s="38"/>
@@ -35687,10 +35728,10 @@
       <c r="DR39" s="111">
         <v>5</v>
       </c>
-      <c r="DS39" s="164" t="s">
+      <c r="DS39" s="168" t="s">
         <v>83</v>
       </c>
-      <c r="DT39" s="164"/>
+      <c r="DT39" s="168"/>
       <c r="DU39" s="38"/>
       <c r="DV39" s="38"/>
       <c r="DW39" s="38"/>
@@ -36051,10 +36092,10 @@
       <c r="AA42" s="50">
         <v>6</v>
       </c>
-      <c r="AB42" s="164" t="s">
+      <c r="AB42" s="168" t="s">
         <v>86</v>
       </c>
-      <c r="AC42" s="164"/>
+      <c r="AC42" s="168"/>
       <c r="AD42" s="38"/>
       <c r="AE42" s="38"/>
       <c r="AF42" s="38"/>
@@ -36079,10 +36120,10 @@
       <c r="AT42" s="50">
         <v>6</v>
       </c>
-      <c r="AU42" s="164" t="s">
+      <c r="AU42" s="168" t="s">
         <v>86</v>
       </c>
-      <c r="AV42" s="164"/>
+      <c r="AV42" s="168"/>
       <c r="AW42" s="38"/>
       <c r="AX42" s="38"/>
       <c r="AY42" s="38"/>
@@ -36107,10 +36148,10 @@
       <c r="BM42" s="50">
         <v>6</v>
       </c>
-      <c r="BN42" s="164" t="s">
+      <c r="BN42" s="168" t="s">
         <v>86</v>
       </c>
-      <c r="BO42" s="164"/>
+      <c r="BO42" s="168"/>
       <c r="BP42" s="38"/>
       <c r="BQ42" s="38"/>
       <c r="BR42" s="38"/>
@@ -36135,10 +36176,10 @@
       <c r="CF42" s="50">
         <v>6</v>
       </c>
-      <c r="CG42" s="164" t="s">
+      <c r="CG42" s="168" t="s">
         <v>86</v>
       </c>
-      <c r="CH42" s="164"/>
+      <c r="CH42" s="168"/>
       <c r="CI42" s="38"/>
       <c r="CJ42" s="38"/>
       <c r="CK42" s="38"/>
@@ -36163,10 +36204,10 @@
       <c r="CY42" s="50">
         <v>6</v>
       </c>
-      <c r="CZ42" s="164" t="s">
+      <c r="CZ42" s="168" t="s">
         <v>86</v>
       </c>
-      <c r="DA42" s="164"/>
+      <c r="DA42" s="168"/>
       <c r="DB42" s="38"/>
       <c r="DC42" s="38"/>
       <c r="DD42" s="38"/>
@@ -36191,10 +36232,10 @@
       <c r="DR42" s="50">
         <v>6</v>
       </c>
-      <c r="DS42" s="164" t="s">
+      <c r="DS42" s="168" t="s">
         <v>86</v>
       </c>
-      <c r="DT42" s="164"/>
+      <c r="DT42" s="168"/>
       <c r="DU42" s="38"/>
       <c r="DV42" s="38"/>
       <c r="DW42" s="38"/>
@@ -36555,10 +36596,10 @@
       <c r="AA45" s="50">
         <v>7</v>
       </c>
-      <c r="AB45" s="164" t="s">
+      <c r="AB45" s="168" t="s">
         <v>89</v>
       </c>
-      <c r="AC45" s="164"/>
+      <c r="AC45" s="168"/>
       <c r="AD45" s="38"/>
       <c r="AE45" s="38"/>
       <c r="AF45" s="38"/>
@@ -36583,10 +36624,10 @@
       <c r="AT45" s="50">
         <v>7</v>
       </c>
-      <c r="AU45" s="164" t="s">
+      <c r="AU45" s="168" t="s">
         <v>89</v>
       </c>
-      <c r="AV45" s="164"/>
+      <c r="AV45" s="168"/>
       <c r="AW45" s="38"/>
       <c r="AX45" s="38"/>
       <c r="AY45" s="38"/>
@@ -36611,10 +36652,10 @@
       <c r="BM45" s="50">
         <v>7</v>
       </c>
-      <c r="BN45" s="164" t="s">
+      <c r="BN45" s="168" t="s">
         <v>89</v>
       </c>
-      <c r="BO45" s="164"/>
+      <c r="BO45" s="168"/>
       <c r="BP45" s="38"/>
       <c r="BQ45" s="38"/>
       <c r="BR45" s="38"/>
@@ -36639,10 +36680,10 @@
       <c r="CF45" s="50">
         <v>7</v>
       </c>
-      <c r="CG45" s="164" t="s">
+      <c r="CG45" s="168" t="s">
         <v>89</v>
       </c>
-      <c r="CH45" s="164"/>
+      <c r="CH45" s="168"/>
       <c r="CI45" s="38"/>
       <c r="CJ45" s="38"/>
       <c r="CK45" s="38"/>
@@ -36667,10 +36708,10 @@
       <c r="CY45" s="50">
         <v>7</v>
       </c>
-      <c r="CZ45" s="164" t="s">
+      <c r="CZ45" s="168" t="s">
         <v>89</v>
       </c>
-      <c r="DA45" s="164"/>
+      <c r="DA45" s="168"/>
       <c r="DB45" s="38"/>
       <c r="DC45" s="38"/>
       <c r="DD45" s="38"/>
@@ -36695,10 +36736,10 @@
       <c r="DR45" s="50">
         <v>7</v>
       </c>
-      <c r="DS45" s="164" t="s">
+      <c r="DS45" s="168" t="s">
         <v>89</v>
       </c>
-      <c r="DT45" s="164"/>
+      <c r="DT45" s="168"/>
       <c r="DU45" s="38"/>
       <c r="DV45" s="38"/>
       <c r="DW45" s="38"/>
@@ -36724,11 +36765,11 @@
       <c r="Z46" s="42"/>
       <c r="AA46" s="37"/>
       <c r="AB46" s="38"/>
-      <c r="AC46" s="165" t="s">
+      <c r="AC46" s="171" t="s">
         <v>90</v>
       </c>
-      <c r="AD46" s="165"/>
-      <c r="AE46" s="165"/>
+      <c r="AD46" s="171"/>
+      <c r="AE46" s="171"/>
       <c r="AF46" s="38"/>
       <c r="AG46" s="37"/>
       <c r="AH46" s="38"/>
@@ -36750,11 +36791,11 @@
       <c r="AS46" s="38"/>
       <c r="AT46" s="37"/>
       <c r="AU46" s="38"/>
-      <c r="AV46" s="165" t="s">
+      <c r="AV46" s="171" t="s">
         <v>90</v>
       </c>
-      <c r="AW46" s="165"/>
-      <c r="AX46" s="165"/>
+      <c r="AW46" s="171"/>
+      <c r="AX46" s="171"/>
       <c r="AY46" s="38"/>
       <c r="AZ46" s="37"/>
       <c r="BA46" s="38"/>
@@ -36776,11 +36817,11 @@
       <c r="BL46" s="38"/>
       <c r="BM46" s="37"/>
       <c r="BN46" s="38"/>
-      <c r="BO46" s="165" t="s">
+      <c r="BO46" s="171" t="s">
         <v>90</v>
       </c>
-      <c r="BP46" s="165"/>
-      <c r="BQ46" s="165"/>
+      <c r="BP46" s="171"/>
+      <c r="BQ46" s="171"/>
       <c r="BR46" s="38"/>
       <c r="BS46" s="37"/>
       <c r="BT46" s="38"/>
@@ -36802,11 +36843,11 @@
       <c r="CE46" s="38"/>
       <c r="CF46" s="37"/>
       <c r="CG46" s="38"/>
-      <c r="CH46" s="165" t="s">
+      <c r="CH46" s="171" t="s">
         <v>90</v>
       </c>
-      <c r="CI46" s="165"/>
-      <c r="CJ46" s="165"/>
+      <c r="CI46" s="171"/>
+      <c r="CJ46" s="171"/>
       <c r="CK46" s="38"/>
       <c r="CL46" s="37"/>
       <c r="CM46" s="38"/>
@@ -36828,11 +36869,11 @@
       <c r="CX46" s="38"/>
       <c r="CY46" s="37"/>
       <c r="CZ46" s="38"/>
-      <c r="DA46" s="165" t="s">
+      <c r="DA46" s="171" t="s">
         <v>90</v>
       </c>
-      <c r="DB46" s="165"/>
-      <c r="DC46" s="165"/>
+      <c r="DB46" s="171"/>
+      <c r="DC46" s="171"/>
       <c r="DD46" s="38"/>
       <c r="DE46" s="37"/>
       <c r="DF46" s="38"/>
@@ -36854,11 +36895,11 @@
       <c r="DQ46" s="38"/>
       <c r="DR46" s="37"/>
       <c r="DS46" s="38"/>
-      <c r="DT46" s="165" t="s">
+      <c r="DT46" s="171" t="s">
         <v>90</v>
       </c>
-      <c r="DU46" s="165"/>
-      <c r="DV46" s="165"/>
+      <c r="DU46" s="171"/>
+      <c r="DV46" s="171"/>
       <c r="DW46" s="38"/>
       <c r="DX46" s="37"/>
       <c r="DY46" s="38"/>
@@ -37256,10 +37297,10 @@
       <c r="AA50" s="54">
         <v>8</v>
       </c>
-      <c r="AB50" s="163" t="s">
+      <c r="AB50" s="170" t="s">
         <v>92</v>
       </c>
-      <c r="AC50" s="163"/>
+      <c r="AC50" s="170"/>
       <c r="AD50" s="35"/>
       <c r="AE50" s="38"/>
       <c r="AF50" s="35"/>
@@ -37279,10 +37320,10 @@
       <c r="AT50" s="54">
         <v>8</v>
       </c>
-      <c r="AU50" s="163" t="s">
+      <c r="AU50" s="170" t="s">
         <v>92</v>
       </c>
-      <c r="AV50" s="163"/>
+      <c r="AV50" s="170"/>
       <c r="AW50" s="35"/>
       <c r="AX50" s="38"/>
       <c r="AY50" s="35"/>
@@ -37302,10 +37343,10 @@
       <c r="BM50" s="54">
         <v>8</v>
       </c>
-      <c r="BN50" s="163" t="s">
+      <c r="BN50" s="170" t="s">
         <v>92</v>
       </c>
-      <c r="BO50" s="163"/>
+      <c r="BO50" s="170"/>
       <c r="BP50" s="35"/>
       <c r="BQ50" s="38"/>
       <c r="BR50" s="35"/>
@@ -37325,10 +37366,10 @@
       <c r="CF50" s="54">
         <v>8</v>
       </c>
-      <c r="CG50" s="163" t="s">
+      <c r="CG50" s="170" t="s">
         <v>92</v>
       </c>
-      <c r="CH50" s="163"/>
+      <c r="CH50" s="170"/>
       <c r="CI50" s="35"/>
       <c r="CJ50" s="38"/>
       <c r="CK50" s="35"/>
@@ -37348,10 +37389,10 @@
       <c r="CY50" s="54">
         <v>8</v>
       </c>
-      <c r="CZ50" s="163" t="s">
+      <c r="CZ50" s="170" t="s">
         <v>92</v>
       </c>
-      <c r="DA50" s="163"/>
+      <c r="DA50" s="170"/>
       <c r="DB50" s="35"/>
       <c r="DC50" s="38"/>
       <c r="DD50" s="35"/>
@@ -37371,10 +37412,10 @@
       <c r="DR50" s="54">
         <v>8</v>
       </c>
-      <c r="DS50" s="163" t="s">
+      <c r="DS50" s="170" t="s">
         <v>92</v>
       </c>
-      <c r="DT50" s="163"/>
+      <c r="DT50" s="170"/>
       <c r="DU50" s="35"/>
       <c r="DV50" s="38"/>
       <c r="DW50" s="35"/>
@@ -38492,10 +38533,10 @@
       <c r="AA59" s="50">
         <v>9</v>
       </c>
-      <c r="AB59" s="164" t="s">
+      <c r="AB59" s="168" t="s">
         <v>98</v>
       </c>
-      <c r="AC59" s="164"/>
+      <c r="AC59" s="168"/>
       <c r="AD59" s="35"/>
       <c r="AE59" s="38"/>
       <c r="AF59" s="38"/>
@@ -38515,10 +38556,10 @@
       <c r="AT59" s="50">
         <v>9</v>
       </c>
-      <c r="AU59" s="164" t="s">
+      <c r="AU59" s="168" t="s">
         <v>98</v>
       </c>
-      <c r="AV59" s="164"/>
+      <c r="AV59" s="168"/>
       <c r="AW59" s="35"/>
       <c r="AX59" s="38"/>
       <c r="AY59" s="38"/>
@@ -38538,10 +38579,10 @@
       <c r="BM59" s="50">
         <v>9</v>
       </c>
-      <c r="BN59" s="164" t="s">
+      <c r="BN59" s="168" t="s">
         <v>98</v>
       </c>
-      <c r="BO59" s="164"/>
+      <c r="BO59" s="168"/>
       <c r="BP59" s="35"/>
       <c r="BQ59" s="38"/>
       <c r="BR59" s="38"/>
@@ -38561,10 +38602,10 @@
       <c r="CF59" s="50">
         <v>9</v>
       </c>
-      <c r="CG59" s="164" t="s">
+      <c r="CG59" s="168" t="s">
         <v>98</v>
       </c>
-      <c r="CH59" s="164"/>
+      <c r="CH59" s="168"/>
       <c r="CI59" s="35"/>
       <c r="CJ59" s="38"/>
       <c r="CK59" s="38"/>
@@ -38584,10 +38625,10 @@
       <c r="CY59" s="50">
         <v>9</v>
       </c>
-      <c r="CZ59" s="164" t="s">
+      <c r="CZ59" s="168" t="s">
         <v>98</v>
       </c>
-      <c r="DA59" s="164"/>
+      <c r="DA59" s="168"/>
       <c r="DB59" s="35"/>
       <c r="DC59" s="38"/>
       <c r="DD59" s="38"/>
@@ -38607,10 +38648,10 @@
       <c r="DR59" s="50">
         <v>9</v>
       </c>
-      <c r="DS59" s="164" t="s">
+      <c r="DS59" s="168" t="s">
         <v>98</v>
       </c>
-      <c r="DT59" s="164"/>
+      <c r="DT59" s="168"/>
       <c r="DU59" s="35"/>
       <c r="DV59" s="38"/>
       <c r="DW59" s="38"/>
@@ -41378,20 +41419,20 @@
       <c r="AA80" s="56">
         <v>12</v>
       </c>
-      <c r="AB80" s="159" t="s">
+      <c r="AB80" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="AC80" s="159"/>
+      <c r="AC80" s="169"/>
       <c r="AD80" s="38"/>
       <c r="AE80" s="38"/>
       <c r="AF80" s="38"/>
       <c r="AG80" s="60">
         <v>13</v>
       </c>
-      <c r="AH80" s="159" t="s">
+      <c r="AH80" s="169" t="s">
         <v>112</v>
       </c>
-      <c r="AI80" s="159"/>
+      <c r="AI80" s="169"/>
       <c r="AJ80" s="39" t="s">
         <v>113</v>
       </c>
@@ -41407,20 +41448,20 @@
       <c r="AT80" s="56">
         <v>12</v>
       </c>
-      <c r="AU80" s="159" t="s">
+      <c r="AU80" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="AV80" s="159"/>
+      <c r="AV80" s="169"/>
       <c r="AW80" s="38"/>
       <c r="AX80" s="38"/>
       <c r="AY80" s="38"/>
       <c r="AZ80" s="60">
         <v>13</v>
       </c>
-      <c r="BA80" s="159" t="s">
+      <c r="BA80" s="169" t="s">
         <v>112</v>
       </c>
-      <c r="BB80" s="159"/>
+      <c r="BB80" s="169"/>
       <c r="BC80" s="39" t="s">
         <v>113</v>
       </c>
@@ -41436,20 +41477,20 @@
       <c r="BM80" s="56">
         <v>12</v>
       </c>
-      <c r="BN80" s="159" t="s">
+      <c r="BN80" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="BO80" s="159"/>
+      <c r="BO80" s="169"/>
       <c r="BP80" s="38"/>
       <c r="BQ80" s="38"/>
       <c r="BR80" s="38"/>
       <c r="BS80" s="60">
         <v>13</v>
       </c>
-      <c r="BT80" s="159" t="s">
+      <c r="BT80" s="169" t="s">
         <v>112</v>
       </c>
-      <c r="BU80" s="159"/>
+      <c r="BU80" s="169"/>
       <c r="BV80" s="39" t="s">
         <v>113</v>
       </c>
@@ -41465,20 +41506,20 @@
       <c r="CF80" s="56">
         <v>12</v>
       </c>
-      <c r="CG80" s="159" t="s">
+      <c r="CG80" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="CH80" s="159"/>
+      <c r="CH80" s="169"/>
       <c r="CI80" s="38"/>
       <c r="CJ80" s="38"/>
       <c r="CK80" s="38"/>
       <c r="CL80" s="60">
         <v>13</v>
       </c>
-      <c r="CM80" s="159" t="s">
+      <c r="CM80" s="169" t="s">
         <v>112</v>
       </c>
-      <c r="CN80" s="159"/>
+      <c r="CN80" s="169"/>
       <c r="CO80" s="39" t="s">
         <v>113</v>
       </c>
@@ -41494,20 +41535,20 @@
       <c r="CY80" s="56">
         <v>12</v>
       </c>
-      <c r="CZ80" s="159" t="s">
+      <c r="CZ80" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="DA80" s="159"/>
+      <c r="DA80" s="169"/>
       <c r="DB80" s="38"/>
       <c r="DC80" s="38"/>
       <c r="DD80" s="38"/>
       <c r="DE80" s="60">
         <v>13</v>
       </c>
-      <c r="DF80" s="159" t="s">
+      <c r="DF80" s="169" t="s">
         <v>112</v>
       </c>
-      <c r="DG80" s="159"/>
+      <c r="DG80" s="169"/>
       <c r="DH80" s="39" t="s">
         <v>113</v>
       </c>
@@ -41523,20 +41564,20 @@
       <c r="DR80" s="56">
         <v>12</v>
       </c>
-      <c r="DS80" s="159" t="s">
+      <c r="DS80" s="169" t="s">
         <v>109</v>
       </c>
-      <c r="DT80" s="159"/>
+      <c r="DT80" s="169"/>
       <c r="DU80" s="38"/>
       <c r="DV80" s="38"/>
       <c r="DW80" s="38"/>
       <c r="DX80" s="60">
         <v>13</v>
       </c>
-      <c r="DY80" s="159" t="s">
+      <c r="DY80" s="169" t="s">
         <v>112</v>
       </c>
-      <c r="DZ80" s="159"/>
+      <c r="DZ80" s="169"/>
       <c r="EA80" s="39" t="s">
         <v>113</v>
       </c>
@@ -41553,12 +41594,12 @@
       <c r="Z81" s="38"/>
       <c r="AA81" s="38"/>
       <c r="AB81" s="38"/>
-      <c r="AC81" s="149" t="s">
+      <c r="AC81" s="164" t="s">
         <v>110</v>
       </c>
-      <c r="AD81" s="149"/>
-      <c r="AE81" s="149"/>
-      <c r="AF81" s="149"/>
+      <c r="AD81" s="164"/>
+      <c r="AE81" s="164"/>
+      <c r="AF81" s="164"/>
       <c r="AG81" s="38"/>
       <c r="AH81" s="38"/>
       <c r="AI81" s="38" t="s">
@@ -41576,12 +41617,12 @@
       <c r="AS81" s="38"/>
       <c r="AT81" s="38"/>
       <c r="AU81" s="38"/>
-      <c r="AV81" s="149" t="s">
+      <c r="AV81" s="164" t="s">
         <v>110</v>
       </c>
-      <c r="AW81" s="149"/>
-      <c r="AX81" s="149"/>
-      <c r="AY81" s="149"/>
+      <c r="AW81" s="164"/>
+      <c r="AX81" s="164"/>
+      <c r="AY81" s="164"/>
       <c r="AZ81" s="38"/>
       <c r="BA81" s="38"/>
       <c r="BB81" s="38" t="s">
@@ -41599,12 +41640,12 @@
       <c r="BL81" s="38"/>
       <c r="BM81" s="38"/>
       <c r="BN81" s="38"/>
-      <c r="BO81" s="149" t="s">
+      <c r="BO81" s="164" t="s">
         <v>110</v>
       </c>
-      <c r="BP81" s="149"/>
-      <c r="BQ81" s="149"/>
-      <c r="BR81" s="149"/>
+      <c r="BP81" s="164"/>
+      <c r="BQ81" s="164"/>
+      <c r="BR81" s="164"/>
       <c r="BS81" s="38"/>
       <c r="BT81" s="38"/>
       <c r="BU81" s="38" t="s">
@@ -41622,12 +41663,12 @@
       <c r="CE81" s="38"/>
       <c r="CF81" s="38"/>
       <c r="CG81" s="38"/>
-      <c r="CH81" s="149" t="s">
+      <c r="CH81" s="164" t="s">
         <v>110</v>
       </c>
-      <c r="CI81" s="149"/>
-      <c r="CJ81" s="149"/>
-      <c r="CK81" s="149"/>
+      <c r="CI81" s="164"/>
+      <c r="CJ81" s="164"/>
+      <c r="CK81" s="164"/>
       <c r="CL81" s="38"/>
       <c r="CM81" s="38"/>
       <c r="CN81" s="38" t="s">
@@ -41645,12 +41686,12 @@
       <c r="CX81" s="38"/>
       <c r="CY81" s="38"/>
       <c r="CZ81" s="38"/>
-      <c r="DA81" s="149" t="s">
+      <c r="DA81" s="164" t="s">
         <v>110</v>
       </c>
-      <c r="DB81" s="149"/>
-      <c r="DC81" s="149"/>
-      <c r="DD81" s="149"/>
+      <c r="DB81" s="164"/>
+      <c r="DC81" s="164"/>
+      <c r="DD81" s="164"/>
       <c r="DE81" s="38"/>
       <c r="DF81" s="38"/>
       <c r="DG81" s="38" t="s">
@@ -41668,12 +41709,12 @@
       <c r="DQ81" s="38"/>
       <c r="DR81" s="38"/>
       <c r="DS81" s="38"/>
-      <c r="DT81" s="149" t="s">
+      <c r="DT81" s="164" t="s">
         <v>110</v>
       </c>
-      <c r="DU81" s="149"/>
-      <c r="DV81" s="149"/>
-      <c r="DW81" s="149"/>
+      <c r="DU81" s="164"/>
+      <c r="DV81" s="164"/>
+      <c r="DW81" s="164"/>
       <c r="DX81" s="38"/>
       <c r="DY81" s="38"/>
       <c r="DZ81" s="38" t="s">
@@ -43556,10 +43597,10 @@
       <c r="AA95" s="28">
         <v>15</v>
       </c>
-      <c r="AB95" s="164" t="s">
+      <c r="AB95" s="168" t="s">
         <v>122</v>
       </c>
-      <c r="AC95" s="164"/>
+      <c r="AC95" s="168"/>
       <c r="AD95" s="38"/>
       <c r="AE95" s="38"/>
       <c r="AF95" s="38"/>
@@ -43579,10 +43620,10 @@
       <c r="AT95" s="28">
         <v>15</v>
       </c>
-      <c r="AU95" s="164" t="s">
+      <c r="AU95" s="168" t="s">
         <v>122</v>
       </c>
-      <c r="AV95" s="164"/>
+      <c r="AV95" s="168"/>
       <c r="AW95" s="38"/>
       <c r="AX95" s="38"/>
       <c r="AY95" s="38"/>
@@ -43602,10 +43643,10 @@
       <c r="BM95" s="28">
         <v>15</v>
       </c>
-      <c r="BN95" s="164" t="s">
+      <c r="BN95" s="168" t="s">
         <v>122</v>
       </c>
-      <c r="BO95" s="164"/>
+      <c r="BO95" s="168"/>
       <c r="BP95" s="38"/>
       <c r="BQ95" s="38"/>
       <c r="BR95" s="38"/>
@@ -43625,10 +43666,10 @@
       <c r="CF95" s="28">
         <v>15</v>
       </c>
-      <c r="CG95" s="164" t="s">
+      <c r="CG95" s="168" t="s">
         <v>122</v>
       </c>
-      <c r="CH95" s="164"/>
+      <c r="CH95" s="168"/>
       <c r="CI95" s="38"/>
       <c r="CJ95" s="38"/>
       <c r="CK95" s="38"/>
@@ -43648,10 +43689,10 @@
       <c r="CY95" s="28">
         <v>15</v>
       </c>
-      <c r="CZ95" s="164" t="s">
+      <c r="CZ95" s="168" t="s">
         <v>122</v>
       </c>
-      <c r="DA95" s="164"/>
+      <c r="DA95" s="168"/>
       <c r="DB95" s="38"/>
       <c r="DC95" s="38"/>
       <c r="DD95" s="38"/>
@@ -43671,10 +43712,10 @@
       <c r="DR95" s="28">
         <v>15</v>
       </c>
-      <c r="DS95" s="164" t="s">
+      <c r="DS95" s="168" t="s">
         <v>122</v>
       </c>
-      <c r="DT95" s="164"/>
+      <c r="DT95" s="168"/>
       <c r="DU95" s="38"/>
       <c r="DV95" s="38"/>
       <c r="DW95" s="38"/>
@@ -56550,38 +56591,54 @@
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="BN95:BO95"/>
-    <mergeCell ref="CG95:CH95"/>
-    <mergeCell ref="CZ95:DA95"/>
-    <mergeCell ref="DS95:DT95"/>
-    <mergeCell ref="AV81:AY81"/>
-    <mergeCell ref="AU95:AV95"/>
-    <mergeCell ref="BA80:BB80"/>
-    <mergeCell ref="AB36:AC36"/>
-    <mergeCell ref="AB39:AC39"/>
-    <mergeCell ref="AB42:AC42"/>
-    <mergeCell ref="AB45:AC45"/>
-    <mergeCell ref="AC46:AE46"/>
-    <mergeCell ref="AB80:AC80"/>
-    <mergeCell ref="AH80:AI80"/>
-    <mergeCell ref="AH20:AI20"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="V26:X26"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="V29:Z29"/>
-    <mergeCell ref="BN80:BO80"/>
-    <mergeCell ref="BT80:BU80"/>
-    <mergeCell ref="BO81:BR81"/>
-    <mergeCell ref="BH26:BJ26"/>
-    <mergeCell ref="BH29:BL29"/>
-    <mergeCell ref="BO26:BQ26"/>
-    <mergeCell ref="BN36:BO36"/>
-    <mergeCell ref="BN39:BO39"/>
-    <mergeCell ref="BN42:BO42"/>
-    <mergeCell ref="BN45:BO45"/>
-    <mergeCell ref="BO46:BQ46"/>
-    <mergeCell ref="BN50:BO50"/>
-    <mergeCell ref="BN59:BO59"/>
+    <mergeCell ref="DS80:DT80"/>
+    <mergeCell ref="DY80:DZ80"/>
+    <mergeCell ref="DT81:DW81"/>
+    <mergeCell ref="DF80:DG80"/>
+    <mergeCell ref="DA81:DD81"/>
+    <mergeCell ref="CZ80:DA80"/>
+    <mergeCell ref="DY20:DZ20"/>
+    <mergeCell ref="DT24:DV24"/>
+    <mergeCell ref="DM26:DO26"/>
+    <mergeCell ref="DT26:DV26"/>
+    <mergeCell ref="DM29:DQ29"/>
+    <mergeCell ref="DS36:DT36"/>
+    <mergeCell ref="DS39:DT39"/>
+    <mergeCell ref="DS42:DT42"/>
+    <mergeCell ref="DS45:DT45"/>
+    <mergeCell ref="DT46:DV46"/>
+    <mergeCell ref="DS50:DT50"/>
+    <mergeCell ref="DS59:DT59"/>
+    <mergeCell ref="CM80:CN80"/>
+    <mergeCell ref="CH81:CK81"/>
+    <mergeCell ref="DF20:DG20"/>
+    <mergeCell ref="DA24:DC24"/>
+    <mergeCell ref="CT26:CV26"/>
+    <mergeCell ref="DA26:DC26"/>
+    <mergeCell ref="CT29:CX29"/>
+    <mergeCell ref="CZ36:DA36"/>
+    <mergeCell ref="CZ39:DA39"/>
+    <mergeCell ref="CZ42:DA42"/>
+    <mergeCell ref="CZ45:DA45"/>
+    <mergeCell ref="DA46:DC46"/>
+    <mergeCell ref="CZ50:DA50"/>
+    <mergeCell ref="CZ59:DA59"/>
+    <mergeCell ref="AC81:AF81"/>
+    <mergeCell ref="CM20:CN20"/>
+    <mergeCell ref="CH24:CJ24"/>
+    <mergeCell ref="CA26:CC26"/>
+    <mergeCell ref="CH26:CJ26"/>
+    <mergeCell ref="CA29:CE29"/>
+    <mergeCell ref="CG36:CH36"/>
+    <mergeCell ref="CG39:CH39"/>
+    <mergeCell ref="CG42:CH42"/>
+    <mergeCell ref="CG45:CH45"/>
+    <mergeCell ref="CH46:CJ46"/>
+    <mergeCell ref="CG50:CH50"/>
+    <mergeCell ref="CG59:CH59"/>
+    <mergeCell ref="CG80:CH80"/>
+    <mergeCell ref="BT20:BU20"/>
+    <mergeCell ref="BO24:BQ24"/>
     <mergeCell ref="AB95:AC95"/>
     <mergeCell ref="BA20:BB20"/>
     <mergeCell ref="AV24:AX24"/>
@@ -56598,54 +56655,38 @@
     <mergeCell ref="AU80:AV80"/>
     <mergeCell ref="AB50:AC50"/>
     <mergeCell ref="AB59:AC59"/>
-    <mergeCell ref="AC81:AF81"/>
-    <mergeCell ref="CM20:CN20"/>
-    <mergeCell ref="CH24:CJ24"/>
-    <mergeCell ref="CA26:CC26"/>
-    <mergeCell ref="CH26:CJ26"/>
-    <mergeCell ref="CA29:CE29"/>
-    <mergeCell ref="CG36:CH36"/>
-    <mergeCell ref="CG39:CH39"/>
-    <mergeCell ref="CG42:CH42"/>
-    <mergeCell ref="CG45:CH45"/>
-    <mergeCell ref="CH46:CJ46"/>
-    <mergeCell ref="CG50:CH50"/>
-    <mergeCell ref="CG59:CH59"/>
-    <mergeCell ref="CG80:CH80"/>
-    <mergeCell ref="BT20:BU20"/>
-    <mergeCell ref="BO24:BQ24"/>
-    <mergeCell ref="DS50:DT50"/>
-    <mergeCell ref="DS59:DT59"/>
-    <mergeCell ref="CM80:CN80"/>
-    <mergeCell ref="CH81:CK81"/>
-    <mergeCell ref="DF20:DG20"/>
-    <mergeCell ref="DA24:DC24"/>
-    <mergeCell ref="CT26:CV26"/>
-    <mergeCell ref="DA26:DC26"/>
-    <mergeCell ref="CT29:CX29"/>
-    <mergeCell ref="CZ36:DA36"/>
-    <mergeCell ref="CZ39:DA39"/>
-    <mergeCell ref="CZ42:DA42"/>
-    <mergeCell ref="CZ45:DA45"/>
-    <mergeCell ref="DA46:DC46"/>
-    <mergeCell ref="CZ50:DA50"/>
-    <mergeCell ref="CZ59:DA59"/>
-    <mergeCell ref="DS36:DT36"/>
-    <mergeCell ref="DS39:DT39"/>
-    <mergeCell ref="DS42:DT42"/>
-    <mergeCell ref="DS45:DT45"/>
-    <mergeCell ref="DT46:DV46"/>
-    <mergeCell ref="DY20:DZ20"/>
-    <mergeCell ref="DT24:DV24"/>
-    <mergeCell ref="DM26:DO26"/>
-    <mergeCell ref="DT26:DV26"/>
-    <mergeCell ref="DM29:DQ29"/>
-    <mergeCell ref="DS80:DT80"/>
-    <mergeCell ref="DY80:DZ80"/>
-    <mergeCell ref="DT81:DW81"/>
-    <mergeCell ref="DF80:DG80"/>
-    <mergeCell ref="DA81:DD81"/>
-    <mergeCell ref="CZ80:DA80"/>
+    <mergeCell ref="BN80:BO80"/>
+    <mergeCell ref="BT80:BU80"/>
+    <mergeCell ref="BO81:BR81"/>
+    <mergeCell ref="BH26:BJ26"/>
+    <mergeCell ref="BH29:BL29"/>
+    <mergeCell ref="BO26:BQ26"/>
+    <mergeCell ref="BN36:BO36"/>
+    <mergeCell ref="BN39:BO39"/>
+    <mergeCell ref="BN42:BO42"/>
+    <mergeCell ref="BN45:BO45"/>
+    <mergeCell ref="BO46:BQ46"/>
+    <mergeCell ref="BN50:BO50"/>
+    <mergeCell ref="BN59:BO59"/>
+    <mergeCell ref="AH20:AI20"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="V26:X26"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="V29:Z29"/>
+    <mergeCell ref="BA80:BB80"/>
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="AB39:AC39"/>
+    <mergeCell ref="AB42:AC42"/>
+    <mergeCell ref="AB45:AC45"/>
+    <mergeCell ref="AC46:AE46"/>
+    <mergeCell ref="AB80:AC80"/>
+    <mergeCell ref="AH80:AI80"/>
+    <mergeCell ref="BN95:BO95"/>
+    <mergeCell ref="CG95:CH95"/>
+    <mergeCell ref="CZ95:DA95"/>
+    <mergeCell ref="DS95:DT95"/>
+    <mergeCell ref="AV81:AY81"/>
+    <mergeCell ref="AU95:AV95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -56657,8 +56698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB59"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+    <sheetView topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -57569,14 +57610,14 @@
       <c r="J35" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="L35" s="164" t="s">
+      <c r="L35" s="168" t="s">
         <v>117</v>
       </c>
-      <c r="M35" s="164"/>
-      <c r="O35" s="164" t="s">
+      <c r="M35" s="168"/>
+      <c r="O35" s="168" t="s">
         <v>122</v>
       </c>
-      <c r="P35" s="164"/>
+      <c r="P35" s="168"/>
     </row>
     <row r="36" spans="2:19">
       <c r="B36" s="126">
@@ -58285,8 +58326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:BS63"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" topLeftCell="K9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y30" sqref="Y30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -60614,6 +60655,9 @@
       <c r="BS29" s="38"/>
     </row>
     <row r="30" spans="1:71">
+      <c r="Y30" t="s">
+        <v>225</v>
+      </c>
       <c r="AD30" s="38"/>
       <c r="AE30" s="38"/>
       <c r="AF30" s="38"/>
@@ -62281,8 +62325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
